--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Ntrk3-Ptprf.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Ntrk3-Ptprf.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,6 +86,12 @@
   </si>
   <si>
     <t>Ptprf</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -443,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,55 +528,55 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.149244735800105</v>
+        <v>0.1511493333333333</v>
       </c>
       <c r="H2">
-        <v>0.149244735800105</v>
+        <v>0.453448</v>
       </c>
       <c r="I2">
-        <v>0.8147613556650337</v>
+        <v>0.7495144539818079</v>
       </c>
       <c r="J2">
-        <v>0.8147613556650337</v>
+        <v>0.7495144539818078</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>5.81110613639534</v>
+        <v>0.101297</v>
       </c>
       <c r="N2">
-        <v>5.81110613639534</v>
+        <v>0.303891</v>
       </c>
       <c r="O2">
-        <v>0.6127353212236625</v>
+        <v>0.009886476207827108</v>
       </c>
       <c r="P2">
-        <v>0.6127353212236625</v>
+        <v>0.009886476207827108</v>
       </c>
       <c r="Q2">
-        <v>0.8672770000326915</v>
+        <v>0.01531097401866667</v>
       </c>
       <c r="R2">
-        <v>0.8672770000326915</v>
+        <v>0.137798766168</v>
       </c>
       <c r="S2">
-        <v>0.4992330609840411</v>
+        <v>0.00741005681671367</v>
       </c>
       <c r="T2">
-        <v>0.4992330609840411</v>
+        <v>0.007410056816713669</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,60 +590,60 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.149244735800105</v>
+        <v>0.1511493333333333</v>
       </c>
       <c r="H3">
-        <v>0.149244735800105</v>
+        <v>0.453448</v>
       </c>
       <c r="I3">
-        <v>0.8147613556650337</v>
+        <v>0.7495144539818079</v>
       </c>
       <c r="J3">
-        <v>0.8147613556650337</v>
+        <v>0.7495144539818078</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.67277040068804</v>
+        <v>5.829902333333333</v>
       </c>
       <c r="N3">
-        <v>3.67277040068804</v>
+        <v>17.489707</v>
       </c>
       <c r="O3">
-        <v>0.3872646787763376</v>
+        <v>0.5689920798489169</v>
       </c>
       <c r="P3">
-        <v>0.3872646787763376</v>
+        <v>0.5689920798489169</v>
       </c>
       <c r="Q3">
-        <v>0.5481416481051323</v>
+        <v>0.8811858510817777</v>
       </c>
       <c r="R3">
-        <v>0.5481416481051323</v>
+        <v>7.930672659735999</v>
       </c>
       <c r="S3">
-        <v>0.3155282946809926</v>
+        <v>0.4264677880479342</v>
       </c>
       <c r="T3">
-        <v>0.3155282946809926</v>
+        <v>0.4264677880479341</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
@@ -646,60 +652,60 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.0339312761233947</v>
+        <v>0.1511493333333333</v>
       </c>
       <c r="H4">
-        <v>0.0339312761233947</v>
+        <v>0.453448</v>
       </c>
       <c r="I4">
-        <v>0.1852386443349663</v>
+        <v>0.7495144539818079</v>
       </c>
       <c r="J4">
-        <v>0.1852386443349663</v>
+        <v>0.7495144539818078</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>5.81110613639534</v>
+        <v>0.06457233333333333</v>
       </c>
       <c r="N4">
-        <v>5.81110613639534</v>
+        <v>0.193717</v>
       </c>
       <c r="O4">
-        <v>0.6127353212236625</v>
+        <v>0.006302188980758376</v>
       </c>
       <c r="P4">
-        <v>0.6127353212236625</v>
+        <v>0.006302188980758376</v>
       </c>
       <c r="Q4">
-        <v>0.1971782468963836</v>
+        <v>0.00976006513511111</v>
       </c>
       <c r="R4">
-        <v>0.1971782468963836</v>
+        <v>0.08784058621599999</v>
       </c>
       <c r="S4">
-        <v>0.1135022602396213</v>
+        <v>0.004723581732803281</v>
       </c>
       <c r="T4">
-        <v>0.1135022602396213</v>
+        <v>0.00472358173280328</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -711,52 +717,300 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.0339312761233947</v>
+        <v>0.1511493333333333</v>
       </c>
       <c r="H5">
-        <v>0.0339312761233947</v>
+        <v>0.453448</v>
       </c>
       <c r="I5">
-        <v>0.1852386443349663</v>
+        <v>0.7495144539818079</v>
       </c>
       <c r="J5">
-        <v>0.1852386443349663</v>
+        <v>0.7495144539818078</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.67277040068804</v>
+        <v>4.250245</v>
       </c>
       <c r="N5">
-        <v>3.67277040068804</v>
+        <v>12.750735</v>
       </c>
       <c r="O5">
-        <v>0.3872646787763376</v>
+        <v>0.4148192549624977</v>
       </c>
       <c r="P5">
-        <v>0.3872646787763376</v>
+        <v>0.4148192549624976</v>
       </c>
       <c r="Q5">
-        <v>0.1246217866035769</v>
+        <v>0.6424216982533334</v>
       </c>
       <c r="R5">
-        <v>0.1246217866035769</v>
+        <v>5.78179528428</v>
       </c>
       <c r="S5">
-        <v>0.07173638409534497</v>
+        <v>0.3109130273843568</v>
       </c>
       <c r="T5">
-        <v>0.07173638409534497</v>
+        <v>0.3109130273843567</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.05051366666666667</v>
+      </c>
+      <c r="H6">
+        <v>0.151541</v>
+      </c>
+      <c r="I6">
+        <v>0.2504855460181921</v>
+      </c>
+      <c r="J6">
+        <v>0.2504855460181921</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.101297</v>
+      </c>
+      <c r="N6">
+        <v>0.303891</v>
+      </c>
+      <c r="O6">
+        <v>0.009886476207827108</v>
+      </c>
+      <c r="P6">
+        <v>0.009886476207827108</v>
+      </c>
+      <c r="Q6">
+        <v>0.005116882892333335</v>
+      </c>
+      <c r="R6">
+        <v>0.046051946031</v>
+      </c>
+      <c r="S6">
+        <v>0.002476419391113438</v>
+      </c>
+      <c r="T6">
+        <v>0.002476419391113438</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.05051366666666667</v>
+      </c>
+      <c r="H7">
+        <v>0.151541</v>
+      </c>
+      <c r="I7">
+        <v>0.2504855460181921</v>
+      </c>
+      <c r="J7">
+        <v>0.2504855460181921</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>5.829902333333333</v>
+      </c>
+      <c r="N7">
+        <v>17.489707</v>
+      </c>
+      <c r="O7">
+        <v>0.5689920798489169</v>
+      </c>
+      <c r="P7">
+        <v>0.5689920798489169</v>
+      </c>
+      <c r="Q7">
+        <v>0.2944897431652223</v>
+      </c>
+      <c r="R7">
+        <v>2.650407688487</v>
+      </c>
+      <c r="S7">
+        <v>0.1425242918009827</v>
+      </c>
+      <c r="T7">
+        <v>0.1425242918009827</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.05051366666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.151541</v>
+      </c>
+      <c r="I8">
+        <v>0.2504855460181921</v>
+      </c>
+      <c r="J8">
+        <v>0.2504855460181921</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.06457233333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.193717</v>
+      </c>
+      <c r="O8">
+        <v>0.006302188980758376</v>
+      </c>
+      <c r="P8">
+        <v>0.006302188980758376</v>
+      </c>
+      <c r="Q8">
+        <v>0.003261785321888889</v>
+      </c>
+      <c r="R8">
+        <v>0.029356067897</v>
+      </c>
+      <c r="S8">
+        <v>0.001578607247955095</v>
+      </c>
+      <c r="T8">
+        <v>0.001578607247955095</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.05051366666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.151541</v>
+      </c>
+      <c r="I9">
+        <v>0.2504855460181921</v>
+      </c>
+      <c r="J9">
+        <v>0.2504855460181921</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>4.250245</v>
+      </c>
+      <c r="N9">
+        <v>12.750735</v>
+      </c>
+      <c r="O9">
+        <v>0.4148192549624977</v>
+      </c>
+      <c r="P9">
+        <v>0.4148192549624976</v>
+      </c>
+      <c r="Q9">
+        <v>0.2146954591816667</v>
+      </c>
+      <c r="R9">
+        <v>1.932259132635</v>
+      </c>
+      <c r="S9">
+        <v>0.1039062275781409</v>
+      </c>
+      <c r="T9">
+        <v>0.1039062275781408</v>
       </c>
     </row>
   </sheetData>
